--- a/biology/Botanique/Malacothrix_glabrata/Malacothrix_glabrata.xlsx
+++ b/biology/Botanique/Malacothrix_glabrata/Malacothrix_glabrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malacothrix glabrata est une espèce de plantes à fleurs de la famille des Asteraceae. On la trouve en Amérique du Nord à l'état sauvage.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée non velue mesure entre 15 et 35 cm de hauteur. Les feuilles, qui mesurent de 6 à 12,5 cm de longueur, sont si découpée qu'elles sont multifides[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juin.
-L'inflorescence est un capitule jaune liguliflore de 2,5 à 4 cm de diamètre. Les fruits sont des akènes prolongés par des soies dont seulement deux demeurent à maturité[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée non velue mesure entre 15 et 35 cm de hauteur. Les feuilles, qui mesurent de 6 à 12,5 cm de longueur, sont si découpée qu'elles sont multifides.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante pousse dans les zones désertiques ou les plaines sablonneuses. Son aire de répartition couvre une partie du sud-ouest des États-Unis (Idaho, Oregon, Californie, Arizona) et du nord-ouest du Mexique.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juin.
+L'inflorescence est un capitule jaune liguliflore de 2,5 à 4 cm de diamètre. Les fruits sont des akènes prolongés par des soies dont seulement deux demeurent à maturité.
 </t>
         </is>
       </c>
@@ -574,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les zones désertiques ou les plaines sablonneuses. Son aire de répartition couvre une partie du sud-ouest des États-Unis (Idaho, Oregon, Californie, Arizona) et du nord-ouest du Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Malacothrix_glabrata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malacothrix_glabrata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Malacothrix californica var. glabrata A.Gray ex D.C.Eaton</t>
         </is>
